--- a/experiments/statictis.xlsx
+++ b/experiments/statictis.xlsx
@@ -443,7 +443,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>766</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>233</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/experiments/statictis.xlsx
+++ b/experiments/statictis.xlsx
@@ -559,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
